--- a/testing/bets 1.25.26.xlsx
+++ b/testing/bets 1.25.26.xlsx
@@ -488,6 +488,9 @@
         <f>+150</f>
         <v>150</v>
       </c>
+      <c r="F2" s="9">
+        <v>1.0</v>
+      </c>
       <c r="G2" s="8">
         <v>0.1</v>
       </c>
@@ -520,6 +523,9 @@
       <c r="E3" s="8">
         <v>-105.0</v>
       </c>
+      <c r="F3" s="9">
+        <v>11.0</v>
+      </c>
       <c r="G3" s="8">
         <v>0.1</v>
       </c>
@@ -552,6 +558,9 @@
       <c r="E4" s="8">
         <v>-115.0</v>
       </c>
+      <c r="F4" s="9">
+        <v>5.0</v>
+      </c>
       <c r="G4" s="8">
         <v>0.1</v>
       </c>
@@ -584,6 +593,9 @@
       <c r="E5" s="8">
         <v>-130.0</v>
       </c>
+      <c r="F5" s="9">
+        <v>93.0</v>
+      </c>
       <c r="G5" s="8">
         <v>0.1</v>
       </c>
@@ -617,6 +629,9 @@
         <f>+115</f>
         <v>115</v>
       </c>
+      <c r="F6" s="9">
+        <v>240.0</v>
+      </c>
       <c r="G6" s="8">
         <v>0.1</v>
       </c>
@@ -650,6 +665,9 @@
         <f t="shared" ref="E7:E8" si="1">+145</f>
         <v>145</v>
       </c>
+      <c r="F7" s="9">
+        <v>45.0</v>
+      </c>
       <c r="G7" s="8">
         <v>0.1</v>
       </c>
@@ -683,6 +701,9 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
+      <c r="F8" s="9">
+        <v>18.0</v>
+      </c>
       <c r="G8" s="8">
         <v>0.1</v>
       </c>
@@ -716,6 +737,9 @@
         <f>+110</f>
         <v>110</v>
       </c>
+      <c r="F9" s="9">
+        <v>-2.0</v>
+      </c>
       <c r="G9" s="8">
         <v>0.1</v>
       </c>
@@ -749,6 +773,9 @@
         <f>+170</f>
         <v>170</v>
       </c>
+      <c r="F10" s="9">
+        <v>14.0</v>
+      </c>
       <c r="G10" s="8">
         <v>0.1</v>
       </c>
@@ -781,6 +808,9 @@
       <c r="E11" s="8">
         <f>+210</f>
         <v>210</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.0</v>
       </c>
       <c r="G11" s="8">
         <v>0.1</v>
